--- a/results/I3_N5_M3_T45_C200_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.0298789263733</v>
+        <v>836.8876719922644</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.390122443834318</v>
+        <v>5.516105791537404</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.914294316987418</v>
+        <v>3.788310969284333</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>592.3099999999879</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.76072200618817</v>
+        <v>37.16435621671619</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.15891053163818</v>
+        <v>41.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>18.75054662682655</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.5490329754725</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.2093610446023</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9699999999998</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8549999999993</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2549999999996</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4799999999998</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>259.0849999999986</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>261.4149999999985</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>258.4149999999981</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>261.75</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>255.4899999999988</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>212.0399999999989</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>216.1899999999988</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>211.7649999999984</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>210.2249999999987</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>206.2249999999991</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6150000000009</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.8100000000009</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000009</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000009</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>259.0849999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>261.4149999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.4149999999981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>261.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>255.4899999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>59.08499999999856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.41499999999849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>58.41499999999809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>61.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.48999999999882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
